--- a/ValueSet-mtici-score-vs.xlsx
+++ b/ValueSet-mtici-score-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>mTICI Score ValueSet</t>
+    <t>MTICI Score ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet containing the codes to represent the mTICI score used to assess the degree of reperfusion after a thrombectomy procedure.</t>
+    <t>ValueSet containing the codes to represent the MTICI score used to assess the degree of reperfusion after a thrombectomy procedure.</t>
   </si>
   <si>
     <t>Purpose</t>
